--- a/out/newspapers_sentiment_llms.xlsx
+++ b/out/newspapers_sentiment_llms.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sentiment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ71"/>
+  <dimension ref="A1:BL71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,6 +612,146 @@
       <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>GPT_4_0_overall_label</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>GPT_5_title_label</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>GPT_5_title_score</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>GPT_5_lead_label</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>GPT_5_lead_score</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>GPT_5_body_label</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>GPT_5_body_score</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>HF_Llama_3_8B_dutch_title_label</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>HF_Llama_3_8B_dutch_title_score</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>HF_Llama_3_8B_dutch_lead_label</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>HF_Llama_3_8B_dutch_lead_score</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>HF_Llama_3_8B_dutch_body_label</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>HF_Llama_3_8B_dutch_body_score</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>HF_Llama_3_8B_en_title_label</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>HF_Llama_3_8B_en_title_score</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>HF_Llama_3_8B_en_lead_label</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>HF_Llama_3_8B_en_lead_score</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>HF_Llama_3_8B_en_body_label</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>HF_Llama_3_8B_en_body_score</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Groq_Llama_70B_title_label</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Groq_Llama_70B_title_score</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Groq_Llama_70B_lead_label</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Groq_Llama_70B_lead_score</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Groq_Llama_70B_body_label</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Groq_Llama_70B_body_score</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>GPT_5_overall_label</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Groq_Llama_70B_overall_label</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>HF_Llama_3_8B_dutch_overall_label</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>HF_Llama_3_8B_en_overall_label</t>
         </is>
       </c>
     </row>
@@ -734,6 +874,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +1024,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -934,6 +1174,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1034,6 +1324,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1244,6 +1584,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1372,6 +1762,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1488,6 +1928,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1622,6 +2112,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1823,6 +2363,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1923,6 +2513,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2113,6 +2753,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2280,6 +2970,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2402,6 +3142,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2554,6 +3344,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2705,6 +3545,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2902,6 +3792,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3023,6 +3963,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3143,6 +4133,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3253,6 +4293,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3406,6 +4496,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3520,6 +4660,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3620,6 +4810,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3767,6 +5007,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3913,6 +5203,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4197,6 +5537,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4310,6 +5700,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG27" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4454,6 +5894,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK28" t="inlineStr"/>
+      <c r="BL28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4585,6 +6075,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG29" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI29" t="inlineStr"/>
+      <c r="BJ29" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK29" t="inlineStr"/>
+      <c r="BL29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4685,6 +6225,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG30" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4849,6 +6439,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG31" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK31" t="inlineStr"/>
+      <c r="BL31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5037,6 +6677,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="inlineStr"/>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE32" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG32" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI32" t="inlineStr"/>
+      <c r="BJ32" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK32" t="inlineStr"/>
+      <c r="BL32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5137,6 +6827,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE33" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG33" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI33" t="inlineStr"/>
+      <c r="BJ33" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK33" t="inlineStr"/>
+      <c r="BL33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5316,6 +7056,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE34" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG34" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI34" t="inlineStr"/>
+      <c r="BJ34" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK34" t="inlineStr"/>
+      <c r="BL34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5422,6 +7212,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE35" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG35" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI35" t="inlineStr"/>
+      <c r="BJ35" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK35" t="inlineStr"/>
+      <c r="BL35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5561,6 +7401,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE36" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG36" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI36" t="inlineStr"/>
+      <c r="BJ36" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK36" t="inlineStr"/>
+      <c r="BL36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5661,6 +7551,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE37" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG37" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI37" t="inlineStr"/>
+      <c r="BJ37" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK37" t="inlineStr"/>
+      <c r="BL37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5766,6 +7706,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE38" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG38" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI38" t="inlineStr"/>
+      <c r="BJ38" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK38" t="inlineStr"/>
+      <c r="BL38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5927,6 +7917,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE39" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG39" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI39" t="inlineStr"/>
+      <c r="BJ39" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK39" t="inlineStr"/>
+      <c r="BL39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6048,6 +8088,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="inlineStr"/>
+      <c r="AZ40" t="inlineStr"/>
+      <c r="BA40" t="inlineStr"/>
+      <c r="BB40" t="inlineStr"/>
+      <c r="BC40" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE40" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG40" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI40" t="inlineStr"/>
+      <c r="BJ40" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK40" t="inlineStr"/>
+      <c r="BL40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6166,6 +8256,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="inlineStr"/>
+      <c r="BB41" t="inlineStr"/>
+      <c r="BC41" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE41" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG41" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI41" t="inlineStr"/>
+      <c r="BJ41" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK41" t="inlineStr"/>
+      <c r="BL41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6325,6 +8465,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr"/>
+      <c r="AX42" t="inlineStr"/>
+      <c r="AY42" t="inlineStr"/>
+      <c r="AZ42" t="inlineStr"/>
+      <c r="BA42" t="inlineStr"/>
+      <c r="BB42" t="inlineStr"/>
+      <c r="BC42" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE42" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG42" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI42" t="inlineStr"/>
+      <c r="BJ42" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK42" t="inlineStr"/>
+      <c r="BL42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6448,6 +8638,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
+      <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="inlineStr"/>
+      <c r="BC43" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE43" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG43" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI43" t="inlineStr"/>
+      <c r="BJ43" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK43" t="inlineStr"/>
+      <c r="BL43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6563,6 +8803,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="inlineStr"/>
+      <c r="AZ44" t="inlineStr"/>
+      <c r="BA44" t="inlineStr"/>
+      <c r="BB44" t="inlineStr"/>
+      <c r="BC44" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE44" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG44" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI44" t="inlineStr"/>
+      <c r="BJ44" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK44" t="inlineStr"/>
+      <c r="BL44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6727,6 +9017,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AU45" t="inlineStr"/>
+      <c r="AV45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="inlineStr"/>
+      <c r="AY45" t="inlineStr"/>
+      <c r="AZ45" t="inlineStr"/>
+      <c r="BA45" t="inlineStr"/>
+      <c r="BB45" t="inlineStr"/>
+      <c r="BC45" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE45" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG45" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI45" t="inlineStr"/>
+      <c r="BJ45" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK45" t="inlineStr"/>
+      <c r="BL45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6848,6 +9188,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr"/>
+      <c r="AY46" t="inlineStr"/>
+      <c r="AZ46" t="inlineStr"/>
+      <c r="BA46" t="inlineStr"/>
+      <c r="BB46" t="inlineStr"/>
+      <c r="BC46" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE46" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG46" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI46" t="inlineStr"/>
+      <c r="BJ46" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK46" t="inlineStr"/>
+      <c r="BL46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6979,6 +9369,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="inlineStr"/>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AU47" t="inlineStr"/>
+      <c r="AV47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr"/>
+      <c r="AX47" t="inlineStr"/>
+      <c r="AY47" t="inlineStr"/>
+      <c r="AZ47" t="inlineStr"/>
+      <c r="BA47" t="inlineStr"/>
+      <c r="BB47" t="inlineStr"/>
+      <c r="BC47" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE47" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG47" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH47" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI47" t="inlineStr"/>
+      <c r="BJ47" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK47" t="inlineStr"/>
+      <c r="BL47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7170,6 +9610,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AU48" t="inlineStr"/>
+      <c r="AV48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr"/>
+      <c r="AX48" t="inlineStr"/>
+      <c r="AY48" t="inlineStr"/>
+      <c r="AZ48" t="inlineStr"/>
+      <c r="BA48" t="inlineStr"/>
+      <c r="BB48" t="inlineStr"/>
+      <c r="BC48" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE48" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG48" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI48" t="inlineStr"/>
+      <c r="BJ48" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK48" t="inlineStr"/>
+      <c r="BL48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7425,6 +9915,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="inlineStr"/>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AU49" t="inlineStr"/>
+      <c r="AV49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr"/>
+      <c r="AX49" t="inlineStr"/>
+      <c r="AY49" t="inlineStr"/>
+      <c r="AZ49" t="inlineStr"/>
+      <c r="BA49" t="inlineStr"/>
+      <c r="BB49" t="inlineStr"/>
+      <c r="BC49" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE49" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG49" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI49" t="inlineStr"/>
+      <c r="BJ49" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK49" t="inlineStr"/>
+      <c r="BL49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7578,6 +10118,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="inlineStr"/>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AU50" t="inlineStr"/>
+      <c r="AV50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr"/>
+      <c r="AX50" t="inlineStr"/>
+      <c r="AY50" t="inlineStr"/>
+      <c r="AZ50" t="inlineStr"/>
+      <c r="BA50" t="inlineStr"/>
+      <c r="BB50" t="inlineStr"/>
+      <c r="BC50" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE50" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG50" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI50" t="inlineStr"/>
+      <c r="BJ50" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK50" t="inlineStr"/>
+      <c r="BL50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7688,6 +10278,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="inlineStr"/>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AU51" t="inlineStr"/>
+      <c r="AV51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr"/>
+      <c r="AX51" t="inlineStr"/>
+      <c r="AY51" t="inlineStr"/>
+      <c r="AZ51" t="inlineStr"/>
+      <c r="BA51" t="inlineStr"/>
+      <c r="BB51" t="inlineStr"/>
+      <c r="BC51" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE51" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG51" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI51" t="inlineStr"/>
+      <c r="BJ51" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK51" t="inlineStr"/>
+      <c r="BL51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7788,6 +10428,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr"/>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AU52" t="inlineStr"/>
+      <c r="AV52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr"/>
+      <c r="AX52" t="inlineStr"/>
+      <c r="AY52" t="inlineStr"/>
+      <c r="AZ52" t="inlineStr"/>
+      <c r="BA52" t="inlineStr"/>
+      <c r="BB52" t="inlineStr"/>
+      <c r="BC52" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD52" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE52" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF52" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG52" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH52" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI52" t="inlineStr"/>
+      <c r="BJ52" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK52" t="inlineStr"/>
+      <c r="BL52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7898,6 +10588,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr"/>
+      <c r="AS53" t="inlineStr"/>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AU53" t="inlineStr"/>
+      <c r="AV53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="inlineStr"/>
+      <c r="AY53" t="inlineStr"/>
+      <c r="AZ53" t="inlineStr"/>
+      <c r="BA53" t="inlineStr"/>
+      <c r="BB53" t="inlineStr"/>
+      <c r="BC53" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE53" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG53" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI53" t="inlineStr"/>
+      <c r="BJ53" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK53" t="inlineStr"/>
+      <c r="BL53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8020,6 +10760,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
+      <c r="AS54" t="inlineStr"/>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AU54" t="inlineStr"/>
+      <c r="AV54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr"/>
+      <c r="AX54" t="inlineStr"/>
+      <c r="AY54" t="inlineStr"/>
+      <c r="AZ54" t="inlineStr"/>
+      <c r="BA54" t="inlineStr"/>
+      <c r="BB54" t="inlineStr"/>
+      <c r="BC54" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE54" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG54" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI54" t="inlineStr"/>
+      <c r="BJ54" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK54" t="inlineStr"/>
+      <c r="BL54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8148,6 +10938,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
+      <c r="AS55" t="inlineStr"/>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AU55" t="inlineStr"/>
+      <c r="AV55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr"/>
+      <c r="AX55" t="inlineStr"/>
+      <c r="AY55" t="inlineStr"/>
+      <c r="AZ55" t="inlineStr"/>
+      <c r="BA55" t="inlineStr"/>
+      <c r="BB55" t="inlineStr"/>
+      <c r="BC55" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE55" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG55" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI55" t="inlineStr"/>
+      <c r="BJ55" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK55" t="inlineStr"/>
+      <c r="BL55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8341,6 +11181,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr"/>
+      <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="inlineStr"/>
+      <c r="AS56" t="inlineStr"/>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AU56" t="inlineStr"/>
+      <c r="AV56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr"/>
+      <c r="AX56" t="inlineStr"/>
+      <c r="AY56" t="inlineStr"/>
+      <c r="AZ56" t="inlineStr"/>
+      <c r="BA56" t="inlineStr"/>
+      <c r="BB56" t="inlineStr"/>
+      <c r="BC56" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE56" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG56" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH56" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI56" t="inlineStr"/>
+      <c r="BJ56" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK56" t="inlineStr"/>
+      <c r="BL56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8457,6 +11347,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr"/>
+      <c r="AS57" t="inlineStr"/>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AU57" t="inlineStr"/>
+      <c r="AV57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr"/>
+      <c r="AX57" t="inlineStr"/>
+      <c r="AY57" t="inlineStr"/>
+      <c r="AZ57" t="inlineStr"/>
+      <c r="BA57" t="inlineStr"/>
+      <c r="BB57" t="inlineStr"/>
+      <c r="BC57" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD57" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE57" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF57" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG57" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH57" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI57" t="inlineStr"/>
+      <c r="BJ57" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK57" t="inlineStr"/>
+      <c r="BL57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8587,6 +11527,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="inlineStr"/>
+      <c r="AS58" t="inlineStr"/>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AU58" t="inlineStr"/>
+      <c r="AV58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr"/>
+      <c r="AX58" t="inlineStr"/>
+      <c r="AY58" t="inlineStr"/>
+      <c r="AZ58" t="inlineStr"/>
+      <c r="BA58" t="inlineStr"/>
+      <c r="BB58" t="inlineStr"/>
+      <c r="BC58" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE58" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG58" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI58" t="inlineStr"/>
+      <c r="BJ58" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK58" t="inlineStr"/>
+      <c r="BL58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8687,6 +11677,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
+      <c r="AO59" t="inlineStr"/>
+      <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr"/>
+      <c r="AR59" t="inlineStr"/>
+      <c r="AS59" t="inlineStr"/>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AU59" t="inlineStr"/>
+      <c r="AV59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr"/>
+      <c r="AX59" t="inlineStr"/>
+      <c r="AY59" t="inlineStr"/>
+      <c r="AZ59" t="inlineStr"/>
+      <c r="BA59" t="inlineStr"/>
+      <c r="BB59" t="inlineStr"/>
+      <c r="BC59" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE59" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG59" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI59" t="inlineStr"/>
+      <c r="BJ59" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK59" t="inlineStr"/>
+      <c r="BL59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8838,6 +11878,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
+      <c r="AO60" t="inlineStr"/>
+      <c r="AP60" t="inlineStr"/>
+      <c r="AQ60" t="inlineStr"/>
+      <c r="AR60" t="inlineStr"/>
+      <c r="AS60" t="inlineStr"/>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AU60" t="inlineStr"/>
+      <c r="AV60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr"/>
+      <c r="AX60" t="inlineStr"/>
+      <c r="AY60" t="inlineStr"/>
+      <c r="AZ60" t="inlineStr"/>
+      <c r="BA60" t="inlineStr"/>
+      <c r="BB60" t="inlineStr"/>
+      <c r="BC60" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE60" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG60" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI60" t="inlineStr"/>
+      <c r="BJ60" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK60" t="inlineStr"/>
+      <c r="BL60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8938,6 +12028,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
+      <c r="AO61" t="inlineStr"/>
+      <c r="AP61" t="inlineStr"/>
+      <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="inlineStr"/>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AU61" t="inlineStr"/>
+      <c r="AV61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr"/>
+      <c r="AX61" t="inlineStr"/>
+      <c r="AY61" t="inlineStr"/>
+      <c r="AZ61" t="inlineStr"/>
+      <c r="BA61" t="inlineStr"/>
+      <c r="BB61" t="inlineStr"/>
+      <c r="BC61" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE61" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG61" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI61" t="inlineStr"/>
+      <c r="BJ61" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK61" t="inlineStr"/>
+      <c r="BL61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9161,6 +12301,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
+      <c r="AO62" t="inlineStr"/>
+      <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr"/>
+      <c r="AR62" t="inlineStr"/>
+      <c r="AS62" t="inlineStr"/>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AU62" t="inlineStr"/>
+      <c r="AV62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr"/>
+      <c r="AX62" t="inlineStr"/>
+      <c r="AY62" t="inlineStr"/>
+      <c r="AZ62" t="inlineStr"/>
+      <c r="BA62" t="inlineStr"/>
+      <c r="BB62" t="inlineStr"/>
+      <c r="BC62" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE62" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF62" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG62" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI62" t="inlineStr"/>
+      <c r="BJ62" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK62" t="inlineStr"/>
+      <c r="BL62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9390,6 +12580,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
+      <c r="AO63" t="inlineStr"/>
+      <c r="AP63" t="inlineStr"/>
+      <c r="AQ63" t="inlineStr"/>
+      <c r="AR63" t="inlineStr"/>
+      <c r="AS63" t="inlineStr"/>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AU63" t="inlineStr"/>
+      <c r="AV63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr"/>
+      <c r="AX63" t="inlineStr"/>
+      <c r="AY63" t="inlineStr"/>
+      <c r="AZ63" t="inlineStr"/>
+      <c r="BA63" t="inlineStr"/>
+      <c r="BB63" t="inlineStr"/>
+      <c r="BC63" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE63" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF63" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG63" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI63" t="inlineStr"/>
+      <c r="BJ63" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK63" t="inlineStr"/>
+      <c r="BL63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9497,6 +12737,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AS64" t="inlineStr"/>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AU64" t="inlineStr"/>
+      <c r="AV64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr"/>
+      <c r="AX64" t="inlineStr"/>
+      <c r="AY64" t="inlineStr"/>
+      <c r="AZ64" t="inlineStr"/>
+      <c r="BA64" t="inlineStr"/>
+      <c r="BB64" t="inlineStr"/>
+      <c r="BC64" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE64" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG64" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI64" t="inlineStr"/>
+      <c r="BJ64" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK64" t="inlineStr"/>
+      <c r="BL64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9597,6 +12887,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
+      <c r="AO65" t="inlineStr"/>
+      <c r="AP65" t="inlineStr"/>
+      <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr"/>
+      <c r="AS65" t="inlineStr"/>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AU65" t="inlineStr"/>
+      <c r="AV65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr"/>
+      <c r="AX65" t="inlineStr"/>
+      <c r="AY65" t="inlineStr"/>
+      <c r="AZ65" t="inlineStr"/>
+      <c r="BA65" t="inlineStr"/>
+      <c r="BB65" t="inlineStr"/>
+      <c r="BC65" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE65" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG65" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI65" t="inlineStr"/>
+      <c r="BJ65" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK65" t="inlineStr"/>
+      <c r="BL65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9715,6 +13055,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
+      <c r="AO66" t="inlineStr"/>
+      <c r="AP66" t="inlineStr"/>
+      <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="inlineStr"/>
+      <c r="AS66" t="inlineStr"/>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AU66" t="inlineStr"/>
+      <c r="AV66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr"/>
+      <c r="AX66" t="inlineStr"/>
+      <c r="AY66" t="inlineStr"/>
+      <c r="AZ66" t="inlineStr"/>
+      <c r="BA66" t="inlineStr"/>
+      <c r="BB66" t="inlineStr"/>
+      <c r="BC66" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE66" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG66" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI66" t="inlineStr"/>
+      <c r="BJ66" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK66" t="inlineStr"/>
+      <c r="BL66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9854,6 +13244,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
+      <c r="AO67" t="inlineStr"/>
+      <c r="AP67" t="inlineStr"/>
+      <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="inlineStr"/>
+      <c r="AS67" t="inlineStr"/>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AU67" t="inlineStr"/>
+      <c r="AV67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr"/>
+      <c r="AX67" t="inlineStr"/>
+      <c r="AY67" t="inlineStr"/>
+      <c r="AZ67" t="inlineStr"/>
+      <c r="BA67" t="inlineStr"/>
+      <c r="BB67" t="inlineStr"/>
+      <c r="BC67" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE67" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG67" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI67" t="inlineStr"/>
+      <c r="BJ67" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK67" t="inlineStr"/>
+      <c r="BL67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -9957,6 +13397,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
+      <c r="AO68" t="inlineStr"/>
+      <c r="AP68" t="inlineStr"/>
+      <c r="AQ68" t="inlineStr"/>
+      <c r="AR68" t="inlineStr"/>
+      <c r="AS68" t="inlineStr"/>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AU68" t="inlineStr"/>
+      <c r="AV68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr"/>
+      <c r="AX68" t="inlineStr"/>
+      <c r="AY68" t="inlineStr"/>
+      <c r="AZ68" t="inlineStr"/>
+      <c r="BA68" t="inlineStr"/>
+      <c r="BB68" t="inlineStr"/>
+      <c r="BC68" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD68" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE68" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF68" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG68" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH68" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI68" t="inlineStr"/>
+      <c r="BJ68" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK68" t="inlineStr"/>
+      <c r="BL68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -10142,6 +13632,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
+      <c r="AO69" t="inlineStr"/>
+      <c r="AP69" t="inlineStr"/>
+      <c r="AQ69" t="inlineStr"/>
+      <c r="AR69" t="inlineStr"/>
+      <c r="AS69" t="inlineStr"/>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AU69" t="inlineStr"/>
+      <c r="AV69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr"/>
+      <c r="AX69" t="inlineStr"/>
+      <c r="AY69" t="inlineStr"/>
+      <c r="AZ69" t="inlineStr"/>
+      <c r="BA69" t="inlineStr"/>
+      <c r="BB69" t="inlineStr"/>
+      <c r="BC69" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE69" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG69" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI69" t="inlineStr"/>
+      <c r="BJ69" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK69" t="inlineStr"/>
+      <c r="BL69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -10284,6 +13824,56 @@
           <t>negative</t>
         </is>
       </c>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
+      <c r="AO70" t="inlineStr"/>
+      <c r="AP70" t="inlineStr"/>
+      <c r="AQ70" t="inlineStr"/>
+      <c r="AR70" t="inlineStr"/>
+      <c r="AS70" t="inlineStr"/>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AU70" t="inlineStr"/>
+      <c r="AV70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr"/>
+      <c r="AX70" t="inlineStr"/>
+      <c r="AY70" t="inlineStr"/>
+      <c r="AZ70" t="inlineStr"/>
+      <c r="BA70" t="inlineStr"/>
+      <c r="BB70" t="inlineStr"/>
+      <c r="BC70" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BD70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BE70" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BF70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG70" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BH70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI70" t="inlineStr"/>
+      <c r="BJ70" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+      <c r="BK70" t="inlineStr"/>
+      <c r="BL70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -10410,6 +14000,56 @@
           <t>positive</t>
         </is>
       </c>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
+      <c r="AO71" t="inlineStr"/>
+      <c r="AP71" t="inlineStr"/>
+      <c r="AQ71" t="inlineStr"/>
+      <c r="AR71" t="inlineStr"/>
+      <c r="AS71" t="inlineStr"/>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AU71" t="inlineStr"/>
+      <c r="AV71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr"/>
+      <c r="AX71" t="inlineStr"/>
+      <c r="AY71" t="inlineStr"/>
+      <c r="AZ71" t="inlineStr"/>
+      <c r="BA71" t="inlineStr"/>
+      <c r="BB71" t="inlineStr"/>
+      <c r="BC71" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BD71" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE71" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BF71" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG71" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BH71" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI71" t="inlineStr"/>
+      <c r="BJ71" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="BK71" t="inlineStr"/>
+      <c r="BL71" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
